--- a/data/trans_orig/P1405-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P1405-Habitat-trans_orig.xlsx
@@ -742,19 +742,19 @@
         <v>8447</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>3200</v>
+        <v>3191</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>18004</v>
+        <v>16873</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01200707058223533</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.004548366330830954</v>
+        <v>0.004536426227533855</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.02559292731510531</v>
+        <v>0.02398501155643964</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>5</v>
@@ -763,19 +763,19 @@
         <v>5328</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>2071</v>
+        <v>1989</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>12016</v>
+        <v>11502</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.007643039106064682</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.002970996823311584</v>
+        <v>0.002852767728291468</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.01723767098884657</v>
+        <v>0.0165012910380049</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>12</v>
@@ -784,19 +784,19 @@
         <v>13774</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>6787</v>
+        <v>7603</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>23259</v>
+        <v>23696</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.009835055647080409</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.004846416974723826</v>
+        <v>0.005428889487001332</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01660776037518548</v>
+        <v>0.01691973323441216</v>
       </c>
     </row>
     <row r="5">
@@ -813,19 +813,19 @@
         <v>695022</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>685465</v>
+        <v>686596</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>700269</v>
+        <v>700278</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9879929294177646</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9744070726848949</v>
+        <v>0.9760149884435606</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9954516336691691</v>
+        <v>0.9954635737724662</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>645</v>
@@ -834,19 +834,19 @@
         <v>691722</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>685034</v>
+        <v>685548</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>694979</v>
+        <v>695061</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9923569608939353</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9827623290111532</v>
+        <v>0.9834987089619951</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9970290031766884</v>
+        <v>0.9971472322717085</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1312</v>
@@ -855,19 +855,19 @@
         <v>1386745</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1377260</v>
+        <v>1376823</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1393732</v>
+        <v>1392916</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9901649443529196</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9833922396248143</v>
+        <v>0.9830802667655881</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9951535830252759</v>
+        <v>0.9945711105129986</v>
       </c>
     </row>
     <row r="6">
@@ -959,19 +959,19 @@
         <v>7334</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>3198</v>
+        <v>3111</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>15519</v>
+        <v>14754</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.007205175382032874</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.003141729095073678</v>
+        <v>0.003055676678845686</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.01524495602599845</v>
+        <v>0.01449421800323917</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>17</v>
@@ -980,19 +980,19 @@
         <v>18969</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>11549</v>
+        <v>11353</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>28581</v>
+        <v>29703</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.01845568824305686</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01123713485541103</v>
+        <v>0.01104640097204626</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.02780860221080407</v>
+        <v>0.02889972920006386</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>24</v>
@@ -1001,19 +1001,19 @@
         <v>26303</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>16446</v>
+        <v>17492</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>38015</v>
+        <v>38289</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.0128574987815783</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.008039000712618361</v>
+        <v>0.008550355163533401</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.01858264087746384</v>
+        <v>0.01871626827773358</v>
       </c>
     </row>
     <row r="8">
@@ -1030,19 +1030,19 @@
         <v>1010613</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1002428</v>
+        <v>1003193</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1014749</v>
+        <v>1014836</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9927948246179671</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9847550439740013</v>
+        <v>0.9855057819967606</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9968582709049263</v>
+        <v>0.9969443233211543</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>920</v>
@@ -1051,19 +1051,19 @@
         <v>1008822</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>999210</v>
+        <v>998088</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1016242</v>
+        <v>1016438</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9815443117569431</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9721913977891959</v>
+        <v>0.9711002707999361</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.988762865144589</v>
+        <v>0.9889535990279538</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1849</v>
@@ -1072,19 +1072,19 @@
         <v>2019435</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>2007723</v>
+        <v>2007449</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>2029292</v>
+        <v>2028246</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9871425012184217</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9814173591225359</v>
+        <v>0.9812837317222665</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9919609992873814</v>
+        <v>0.9914496448364666</v>
       </c>
     </row>
     <row r="9">
@@ -1176,19 +1176,19 @@
         <v>7021</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>2908</v>
+        <v>2966</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>15343</v>
+        <v>14746</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.009266889167259413</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.003838518101264184</v>
+        <v>0.003914257037199178</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02025199974758888</v>
+        <v>0.01946328586911029</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>11</v>
@@ -1197,19 +1197,19 @@
         <v>11913</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>6402</v>
+        <v>5581</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>21580</v>
+        <v>19872</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.0153284217510916</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.008237641410401782</v>
+        <v>0.007180512605745169</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.02776784762063915</v>
+        <v>0.02556947121543055</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>17</v>
@@ -1218,19 +1218,19 @@
         <v>18934</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>10850</v>
+        <v>11192</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>29308</v>
+        <v>30392</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01233626223635064</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.007069113440117951</v>
+        <v>0.00729195986083272</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01909556124780407</v>
+        <v>0.01980223888908778</v>
       </c>
     </row>
     <row r="11">
@@ -1247,19 +1247,19 @@
         <v>750602</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>742280</v>
+        <v>742877</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>754715</v>
+        <v>754657</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9907331108327406</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9797480002524113</v>
+        <v>0.9805367141308898</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9961614818987359</v>
+        <v>0.9960857429628008</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>694</v>
@@ -1268,19 +1268,19 @@
         <v>765261</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>755594</v>
+        <v>757302</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>770772</v>
+        <v>771593</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9846715782489084</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9722321523793606</v>
+        <v>0.9744305287845695</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9917623585895982</v>
+        <v>0.9928194873942547</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1377</v>
@@ -1289,19 +1289,19 @@
         <v>1515863</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1505489</v>
+        <v>1504405</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1523947</v>
+        <v>1523605</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9876637377636494</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.980904438752196</v>
+        <v>0.9801977611109123</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9929308865598822</v>
+        <v>0.9927080401391672</v>
       </c>
     </row>
     <row r="12">
@@ -1393,19 +1393,19 @@
         <v>5963</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>2007</v>
+        <v>1987</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>14059</v>
+        <v>14278</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.006291980143419934</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.00211799750121072</v>
+        <v>0.002096334873064363</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.01483400897765415</v>
+        <v>0.01506540843654789</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>23</v>
@@ -1414,19 +1414,19 @@
         <v>26521</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>17221</v>
+        <v>17547</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>40346</v>
+        <v>39995</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.02521208305138228</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01637171083745224</v>
+        <v>0.01668133568169594</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.03835538659630915</v>
+        <v>0.03802209188310461</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>28</v>
@@ -1435,19 +1435,19 @@
         <v>32484</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>21797</v>
+        <v>20998</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>47043</v>
+        <v>47175</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01624480742288634</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01090064630433397</v>
+        <v>0.01050107845566189</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.0235259008448132</v>
+        <v>0.02359187161479405</v>
       </c>
     </row>
     <row r="14">
@@ -1464,19 +1464,19 @@
         <v>941776</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>933680</v>
+        <v>933461</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>945732</v>
+        <v>945752</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9937080198565801</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9851659910223456</v>
+        <v>0.9849345915634521</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9978820024987892</v>
+        <v>0.9979036651269356</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>980</v>
@@ -1485,19 +1485,19 @@
         <v>1025380</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>1011555</v>
+        <v>1011906</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>1034680</v>
+        <v>1034354</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9747879169486178</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9616446134036909</v>
+        <v>0.9619779081168954</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9836282891625479</v>
+        <v>0.9833186643183041</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1885</v>
@@ -1506,19 +1506,19 @@
         <v>1967156</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1952597</v>
+        <v>1952465</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1977843</v>
+        <v>1978642</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9837551925771136</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.976474099155187</v>
+        <v>0.976408128385206</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.989099353695666</v>
+        <v>0.9894989215443382</v>
       </c>
     </row>
     <row r="15">
@@ -1610,19 +1610,19 @@
         <v>28765</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>18645</v>
+        <v>18743</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>41686</v>
+        <v>42817</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.008394197453167985</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.005441105951424254</v>
+        <v>0.005469459392987229</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.01216488790375713</v>
+        <v>0.01249473647692724</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>56</v>
@@ -1631,19 +1631,19 @@
         <v>62730</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>47922</v>
+        <v>47257</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>81921</v>
+        <v>80005</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01765084957858858</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01348430013297895</v>
+        <v>0.0132971126762563</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.02305090432236107</v>
+        <v>0.02251166741664101</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>81</v>
@@ -1652,19 +1652,19 @@
         <v>91495</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>72767</v>
+        <v>73711</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>112180</v>
+        <v>112925</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01310681750149702</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01042400065680382</v>
+        <v>0.01055932974668654</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.01607000785567564</v>
+        <v>0.01617676215914926</v>
       </c>
     </row>
     <row r="17">
@@ -1681,19 +1681,19 @@
         <v>3398014</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3385093</v>
+        <v>3383962</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3408134</v>
+        <v>3408036</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9916058025468321</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.987835112096243</v>
+        <v>0.9875052635230729</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9945588940485758</v>
+        <v>0.994530540607013</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3239</v>
@@ -1702,19 +1702,19 @@
         <v>3491186</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3471995</v>
+        <v>3473911</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3505994</v>
+        <v>3506659</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9823491504214115</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.976949095677639</v>
+        <v>0.9774883325833587</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9865156998670211</v>
+        <v>0.9867028873237437</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6423</v>
@@ -1723,19 +1723,19 @@
         <v>6889199</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6868514</v>
+        <v>6867769</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6907927</v>
+        <v>6906983</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.986893182498503</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9839299921443242</v>
+        <v>0.983823237840851</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9895759993431962</v>
+        <v>0.9894406702533135</v>
       </c>
     </row>
     <row r="18">
@@ -2070,7 +2070,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>9330</v>
+        <v>8948</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.004074607888917461</v>
@@ -2079,7 +2079,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01382697690674111</v>
+        <v>0.01326051453170689</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>12</v>
@@ -2088,19 +2088,19 @@
         <v>12032</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>6636</v>
+        <v>6836</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>20291</v>
+        <v>20940</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01788221622629569</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.009863155893365382</v>
+        <v>0.01016049637594748</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.03015729068331851</v>
+        <v>0.031121330603737</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>14</v>
@@ -2109,19 +2109,19 @@
         <v>14781</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>8282</v>
+        <v>7997</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>25104</v>
+        <v>24998</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01096836606350481</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.00614562828275494</v>
+        <v>0.005934265989152429</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01862820563327771</v>
+        <v>0.01854960771645094</v>
       </c>
     </row>
     <row r="5">
@@ -2138,7 +2138,7 @@
         <v>672050</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>665470</v>
+        <v>665852</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>674800</v>
@@ -2147,7 +2147,7 @@
         <v>0.9959253921110826</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9861730230932589</v>
+        <v>0.986739485468294</v>
       </c>
       <c r="I5" s="6" t="n">
         <v>1</v>
@@ -2159,19 +2159,19 @@
         <v>660807</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>652548</v>
+        <v>651899</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>666203</v>
+        <v>666003</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9821177837737043</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9698427093166817</v>
+        <v>0.9688786693962629</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9901368441066346</v>
+        <v>0.9898395036240524</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1304</v>
@@ -2180,19 +2180,19 @@
         <v>1332858</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1322535</v>
+        <v>1322641</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1339357</v>
+        <v>1339642</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9890316339364952</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9813717943667207</v>
+        <v>0.9814503922835491</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.993854371717245</v>
+        <v>0.9940657340108476</v>
       </c>
     </row>
     <row r="6">
@@ -2284,19 +2284,19 @@
         <v>6949</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>2925</v>
+        <v>2940</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>13101</v>
+        <v>13084</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.006796359304942186</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.002860724528206428</v>
+        <v>0.002875874671998725</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.01281378322060645</v>
+        <v>0.0127966372828181</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>12</v>
@@ -2305,19 +2305,19 @@
         <v>13738</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>7152</v>
+        <v>6784</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>23113</v>
+        <v>22189</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.01317249254421293</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.006857585500950203</v>
+        <v>0.006505195019740337</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.02216150347312207</v>
+        <v>0.0212760770228226</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>19</v>
@@ -2326,19 +2326,19 @@
         <v>20687</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>12761</v>
+        <v>12592</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>32149</v>
+        <v>30774</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01001604197166085</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.006178716611353695</v>
+        <v>0.00609692705025931</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.01556569465002877</v>
+        <v>0.01490005039020302</v>
       </c>
     </row>
     <row r="8">
@@ -2355,19 +2355,19 @@
         <v>1015482</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1009330</v>
+        <v>1009347</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1019506</v>
+        <v>1019491</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9932036406950578</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9871862167793934</v>
+        <v>0.9872033627171818</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9971392754717935</v>
+        <v>0.9971241253280013</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>965</v>
@@ -2376,19 +2376,19 @@
         <v>1029175</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1019800</v>
+        <v>1020724</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1035761</v>
+        <v>1036129</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9868275074557871</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9778384965268775</v>
+        <v>0.9787239229771774</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9931424144990494</v>
+        <v>0.9934948049802595</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1909</v>
@@ -2397,19 +2397,19 @@
         <v>2044657</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>2033195</v>
+        <v>2034570</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>2052583</v>
+        <v>2052752</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9899839580283392</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9844343053499712</v>
+        <v>0.985099949609797</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9938212833886463</v>
+        <v>0.9939030729497407</v>
       </c>
     </row>
     <row r="9">
@@ -2501,19 +2501,19 @@
         <v>5656</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>2072</v>
+        <v>2064</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>12013</v>
+        <v>13024</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.007446342483462572</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.002728447064383956</v>
+        <v>0.002717295711115806</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01581604768012627</v>
+        <v>0.01714733593112266</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>7</v>
@@ -2522,19 +2522,19 @@
         <v>7231</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>2974</v>
+        <v>2990</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>14591</v>
+        <v>13975</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.009211077920697367</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.003787897789746268</v>
+        <v>0.003808505292199606</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.01858639587714255</v>
+        <v>0.01780281739622828</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>12</v>
@@ -2543,19 +2543,19 @@
         <v>12887</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>6566</v>
+        <v>6934</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>22115</v>
+        <v>22232</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.0083432540392567</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.004250883168752295</v>
+        <v>0.00448933828674875</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01431816973040286</v>
+        <v>0.01439357553556442</v>
       </c>
     </row>
     <row r="11">
@@ -2572,19 +2572,19 @@
         <v>753896</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>747539</v>
+        <v>746528</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>757480</v>
+        <v>757488</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9925536575165375</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9841839523198738</v>
+        <v>0.9828526640688773</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9972715529356161</v>
+        <v>0.9972827042888842</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>729</v>
@@ -2593,19 +2593,19 @@
         <v>777780</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>770420</v>
+        <v>771036</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>782037</v>
+        <v>782021</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9907889220793026</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9814136041228574</v>
+        <v>0.9821971826037716</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9962121022102537</v>
+        <v>0.9961914947078004</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1420</v>
@@ -2614,19 +2614,19 @@
         <v>1531676</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1522448</v>
+        <v>1522331</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1537997</v>
+        <v>1537629</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9916567459607433</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9856818302695971</v>
+        <v>0.9856064244644356</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9957491168312477</v>
+        <v>0.9955106617132512</v>
       </c>
     </row>
     <row r="12">
@@ -2718,19 +2718,19 @@
         <v>10050</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>4857</v>
+        <v>4422</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>21038</v>
+        <v>19530</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01071883192053988</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.00518049011468799</v>
+        <v>0.004716603724126103</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.02243912768818156</v>
+        <v>0.02083063451728077</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>20</v>
@@ -2739,19 +2739,19 @@
         <v>22732</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>13457</v>
+        <v>14431</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>33387</v>
+        <v>33911</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.02177843569718822</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01289302810048854</v>
+        <v>0.01382613856425296</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.03198640906125663</v>
+        <v>0.03248899596120583</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>28</v>
@@ -2760,19 +2760,19 @@
         <v>32781</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>21501</v>
+        <v>22354</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>45378</v>
+        <v>47307</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01654506431094287</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01085163469103034</v>
+        <v>0.01128224351348863</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.02290260244797764</v>
+        <v>0.02387641000930082</v>
       </c>
     </row>
     <row r="14">
@@ -2789,19 +2789,19 @@
         <v>927517</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>916529</v>
+        <v>918037</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>932710</v>
+        <v>933145</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9892811680794601</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9775608723118191</v>
+        <v>0.9791693654827194</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.994819509885312</v>
+        <v>0.9952833962758739</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>939</v>
@@ -2810,19 +2810,19 @@
         <v>1021047</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>1010392</v>
+        <v>1009868</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>1030322</v>
+        <v>1029348</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9782215643028118</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9680135909387433</v>
+        <v>0.9675110040387941</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9871069718995114</v>
+        <v>0.986173861435747</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1863</v>
@@ -2831,19 +2831,19 @@
         <v>1948565</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1935968</v>
+        <v>1934039</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1959845</v>
+        <v>1958992</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9834549356890572</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9770973975520224</v>
+        <v>0.9761235899906993</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9891483653089697</v>
+        <v>0.9887177564865115</v>
       </c>
     </row>
     <row r="15">
@@ -2935,19 +2935,19 @@
         <v>25404</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>17168</v>
+        <v>16401</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>40460</v>
+        <v>37849</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.007484160799560098</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.005057787189995538</v>
+        <v>0.004831916553130595</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.0119197634179513</v>
+        <v>0.01115060755382072</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>51</v>
@@ -2956,19 +2956,19 @@
         <v>55732</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>41524</v>
+        <v>43607</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>70868</v>
+        <v>73194</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01572341010108616</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01171504251386044</v>
+        <v>0.01230261987426657</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.01999355660025848</v>
+        <v>0.02064989994676948</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>73</v>
@@ -2977,19 +2977,19 @@
         <v>81136</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>64091</v>
+        <v>63945</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>100679</v>
+        <v>103998</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01169295432876829</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.00923644287614676</v>
+        <v>0.009215489114871038</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.01450939568265995</v>
+        <v>0.01498774779849737</v>
       </c>
     </row>
     <row r="17">
@@ -3006,19 +3006,19 @@
         <v>3368946</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3353890</v>
+        <v>3356501</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3377182</v>
+        <v>3377949</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.99251583920044</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9880802365820486</v>
+        <v>0.9888493924461791</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9949422128100044</v>
+        <v>0.9951680834468694</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3287</v>
@@ -3027,19 +3027,19 @@
         <v>3488810</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3473674</v>
+        <v>3471348</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3503018</v>
+        <v>3500935</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9842765898989139</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9800064433997416</v>
+        <v>0.9793501000532305</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9882849574861396</v>
+        <v>0.9876973801257335</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6496</v>
@@ -3048,19 +3048,19 @@
         <v>6857756</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6838213</v>
+        <v>6834894</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6874801</v>
+        <v>6874947</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9883070456712317</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.98549060431734</v>
+        <v>0.9850122522015023</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9907635571238531</v>
+        <v>0.9907845108851288</v>
       </c>
     </row>
     <row r="18">
